--- a/data/trans_dic/P2C_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,75%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,12; 1,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,14; 1,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,16; 1,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>25,02; 39,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,29; 1,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,39; 1,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,16; 1,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>29,02; 37,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,3; 1,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,38; 1,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,27; 1,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,19; 36,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,02%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,1; 1,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,08; 0,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,54; 1,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>8,47; 15,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,22; 1,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,42; 1,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,25; 1,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,56; 8,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,23; 1,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,3; 0,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,49; 1,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,32; 10,05</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,3; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>1,8; 7,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,37; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>6,69; 29,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,34; 3,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>1,53; 6,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>1,59; 5,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>6,75; 18,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,63; 2,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,14; 5,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,34; 3,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>7,94; 19,63</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,51%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,32; 1,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,44; 1,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,54; 1,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>13,65; 20,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,46; 1,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,75; 1,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,61; 1,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,42; 17,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0,44; 0,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,7; 1,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0,69; 1,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>8,84; 17,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,07</t>
+          <t>0,12; 1,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,29</t>
+          <t>0,14; 1,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,44</t>
+          <t>0,16; 1,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,02; 39,53</t>
+          <t>24,61; 39,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,47</t>
+          <t>0,28; 1,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,63</t>
+          <t>0,35; 1,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,46</t>
+          <t>0,17; 1,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 37,99</t>
+          <t>29,18; 37,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,15</t>
+          <t>0,29; 1,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,22</t>
+          <t>0,41; 1,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,17</t>
+          <t>0,25; 1,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,19; 36,82</t>
+          <t>29,35; 36,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,49</t>
+          <t>0,1; 1,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,73</t>
+          <t>0,08; 0,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,88</t>
+          <t>0,53; 1,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 15,46</t>
+          <t>8,34; 15,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,42</t>
+          <t>0,23; 1,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,61</t>
+          <t>0,42; 1,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,18</t>
+          <t>0,25; 1,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,06</t>
+          <t>1,72; 8,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,14</t>
+          <t>0,24; 1,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,95</t>
+          <t>0,3; 0,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,28</t>
+          <t>0,5; 1,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,05</t>
+          <t>2,84; 9,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,0</t>
+          <t>0,35; 3,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,4</t>
+          <t>1,79; 7,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,38</t>
+          <t>0,36; 3,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 29,39</t>
+          <t>6,55; 28,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,31</t>
+          <t>0,35; 3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,94</t>
+          <t>1,76; 6,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,91</t>
+          <t>1,84; 5,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 18,06</t>
+          <t>7,26; 17,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,53</t>
+          <t>0,53; 2,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,84</t>
+          <t>2,14; 6,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,88</t>
+          <t>1,33; 3,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 19,63</t>
+          <t>8,78; 20,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,09</t>
+          <t>0,25; 1,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,33</t>
+          <t>0,42; 1,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,47</t>
+          <t>0,56; 1,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,65; 20,33</t>
+          <t>13,53; 20,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,3</t>
+          <t>0,46; 1,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,72</t>
+          <t>0,76; 1,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,45</t>
+          <t>0,59; 1,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 17,95</t>
+          <t>7,02; 17,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,99</t>
+          <t>0,46; 1,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,7; 1,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,29</t>
+          <t>0,68; 1,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,67</t>
+          <t>8,68; 17,56</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2760</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36069</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7346</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9076</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4865</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>83232</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10229</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13066</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7624</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>119301</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>818; 7901</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1007; 10092</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>804; 8393</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28160; 45164</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2789; 16449</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3705; 17297</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1343; 12361</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>72896; 94199</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4893; 18390</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7261; 22542</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3215; 15533</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>106919; 133794</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3042</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11682</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>33653</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6225</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9963</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7145</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26005</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10763</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13005</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18827</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59658</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>903; 12763</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>935; 8152</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5878; 21211</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24490; 44897</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2298; 14456</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4984; 18368</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3039; 14243</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9563; 45045</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4764; 21851</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7023; 22519</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11709; 29402</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24154; 84277</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3636</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9669</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11611</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9580</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10530</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10293</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7789</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19249</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13706</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21904</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1032; 9347</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4636; 20027</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>974; 8449</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5267; 23037</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1008; 9582</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4723; 18682</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5755; 18727</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6490; 15440</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3104; 14691</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11292; 32257</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7734; 22578</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14919; 34115</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>81334</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>119530</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>200864</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4736; 20677</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9019; 27773</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10542; 27189</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>66110; 99430</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10664; 29730</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19089; 42836</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13679; 33539</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>62907; 161127</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19490; 44763</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>32516; 60428</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28689; 54952</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>120186; 243054</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>